--- a/biology/Zoologie/Hocco_de_Blumenbach/Hocco_de_Blumenbach.xlsx
+++ b/biology/Zoologie/Hocco_de_Blumenbach/Hocco_de_Blumenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crax blumenbachii
 L’Hocco de Blumenbach (Crax blumenbachii) est une espèce d'oiseau de la famille des Cracidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 84 cm de longueur. Le mâle a un plumage noir avec un ventre blanc, une huppe frisée sur la tête, le bec gris et une cire rouge, l'iris est brun. La femelle a le plumage noir et le ventre marron, la cire et la base du bec gris, l'iris orange.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit dans les arbres ou sur le sol, de fruits, de noix, de graines, de feuilles et de petits invertébrés.
 </t>
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les des arbres et la période d'incubation des œufs est de 28 jours.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique aux plaines de la forêt atlantique dans les États de Espírito Santo, Bahia et Minas Gerais dans le sud-est Brésil.
 </t>
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts et le bord des cours d'eau.
 Il est menacé par la destruction ou la fragmentation de son habitat.
